--- a/project/ubuntu1804/Input_Data_and_Params.xlsx
+++ b/project/ubuntu1804/Input_Data_and_Params.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ExptlCVData" sheetId="1" state="visible" r:id="rId2"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t xml:space="preserve">Potential [mV]</t>
   </si>
@@ -263,18 +263,6 @@
   </si>
   <si>
     <t xml:space="preserve">pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laviron (when nu and ThetaT both equal 1)</t>
   </si>
   <si>
     <t xml:space="preserve">Plotting Options</t>
@@ -317,13 +305,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
     <numFmt numFmtId="168" formatCode="0"/>
-    <numFmt numFmtId="169" formatCode="@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -409,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -438,6 +425,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -464,7 +465,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -541,16 +542,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2888,8 +2885,8 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3155,50 +3152,17 @@
       <c r="D22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="14"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="20" t="n">
-        <f aca="false">-0.5*B24</f>
-        <v>-0</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C24" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3216,7 +3180,7 @@
   </sheetPr>
   <dimension ref="A2:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -3230,73 +3194,73 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="23" t="n">
+        <v>42</v>
+      </c>
+      <c r="E4" s="22" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="23" t="n">
+        <v>44</v>
+      </c>
+      <c r="E6" s="22" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="22" t="s">
         <v>45</v>
       </c>
+      <c r="B8" s="21" t="s">
+        <v>41</v>
+      </c>
       <c r="D8" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="24" t="n">
+        <v>46</v>
+      </c>
+      <c r="E8" s="23" t="n">
         <v>1E-006</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="24" t="n">
+        <v>48</v>
+      </c>
+      <c r="E10" s="23" t="n">
         <v>1E-006</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="23" t="n">
+        <v>49</v>
+      </c>
+      <c r="E12" s="22" t="n">
         <v>0.01</v>
       </c>
     </row>
